--- a/data/trans_orig/P1410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41FDC16-CDCB-4B7B-9715-39AA9B2699EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4139725-444B-4C15-82E4-86A7A3C1B9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86940410-DBF1-4AB3-8150-7DA3A13E177E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD87768C-755A-4977-BC65-2F81D7BC7B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="413">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1240 +95,1189 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>5,46%</t>
+    <t>5,44%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>93,43%</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366980A1-34FA-4C2B-B330-9A46CAAF8387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5386B3B-31F5-4104-B577-C5229A07CBAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2742,10 +2691,10 @@
         <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2754,13 +2703,13 @@
         <v>27554</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>76</v>
@@ -2769,13 +2718,13 @@
         <v>71733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2739,13 @@
         <v>898043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>970</v>
@@ -2805,13 +2754,13 @@
         <v>1011058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>1915</v>
@@ -2820,13 +2769,13 @@
         <v>1909101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2915,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2930,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2894,13 @@
         <v>150161</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -2960,13 +2909,13 @@
         <v>126701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>277</v>
@@ -2975,13 +2924,13 @@
         <v>276862</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2945,13 @@
         <v>3126383</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>3176</v>
@@ -3011,28 +2960,28 @@
         <v>3252497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>6234</v>
       </c>
       <c r="N26" s="7">
-        <v>6378878</v>
+        <v>6378879</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,7 +3023,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>34</v>
@@ -3088,7 +3037,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE475BA-3726-4E9D-ADC7-752515C2A54A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D49B1A7-3A50-490D-BEE7-9AF1D5ADDEB7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3126,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3239,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3254,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3269,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3233,13 @@
         <v>5388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3299,13 +3248,13 @@
         <v>4686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3314,13 +3263,13 @@
         <v>10074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3284,13 @@
         <v>110377</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H6" s="7">
         <v>95</v>
@@ -3350,13 +3299,13 @@
         <v>107219</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>212</v>
@@ -3365,13 +3314,13 @@
         <v>217596</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3394,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3460,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3490,13 +3439,13 @@
         <v>19179</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -3505,13 +3454,13 @@
         <v>27682</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -3520,13 +3469,13 @@
         <v>46861</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3490,13 @@
         <v>568525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>525</v>
@@ -3556,13 +3505,13 @@
         <v>557463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>1059</v>
@@ -3571,13 +3520,13 @@
         <v>1125988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3666,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3696,13 +3645,13 @@
         <v>39407</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3711,13 +3660,13 @@
         <v>44174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -3726,13 +3675,13 @@
         <v>83582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3696,13 @@
         <v>978540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>896</v>
@@ -3762,13 +3711,13 @@
         <v>983617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>1795</v>
@@ -3777,13 +3726,13 @@
         <v>1962156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3902,13 +3851,13 @@
         <v>26445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3917,13 +3866,13 @@
         <v>22535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -3932,13 +3881,13 @@
         <v>48980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3902,13 @@
         <v>731178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>684</v>
@@ -3968,13 +3917,13 @@
         <v>754639</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M18" s="7">
         <v>1350</v>
@@ -3983,13 +3932,13 @@
         <v>1485817</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4057,13 @@
         <v>41868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -4123,13 +4072,13 @@
         <v>49702</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -4138,13 +4087,13 @@
         <v>91570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4108,13 @@
         <v>905871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>955</v>
@@ -4174,13 +4123,13 @@
         <v>1002199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>1825</v>
@@ -4189,13 +4138,13 @@
         <v>1908070</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4284,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4299,7 +4248,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,10 +4266,10 @@
         <v>63</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -4329,13 +4278,13 @@
         <v>148779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>263</v>
@@ -4344,13 +4293,13 @@
         <v>281066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,10 +4317,10 @@
         <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>3155</v>
@@ -4380,13 +4329,13 @@
         <v>3405137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>6241</v>
@@ -4395,13 +4344,13 @@
         <v>6699628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,7 +4406,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1288A7E-EED9-4760-99E8-43DBB90C2890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD58EB0-A809-4918-B5FA-5F3CAA32E5DE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4495,7 +4444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4608,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4623,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4638,7 +4587,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,7 +4602,7 @@
         <v>3660</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>237</v>
@@ -4683,7 +4632,7 @@
         <v>11462</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>242</v>
@@ -4704,13 +4653,13 @@
         <v>112886</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>109</v>
@@ -4719,13 +4668,13 @@
         <v>105558</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>218</v>
@@ -4734,13 +4683,13 @@
         <v>218444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4829,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4844,7 +4793,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +4808,7 @@
         <v>24801</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>254</v>
@@ -4877,10 +4826,10 @@
         <v>256</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -4889,13 +4838,13 @@
         <v>60263</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,7 +4859,7 @@
         <v>533453</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>262</v>
@@ -4931,7 +4880,7 @@
         <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>1033</v>
@@ -4940,13 +4889,13 @@
         <v>1057470</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,7 +4969,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5035,7 +4984,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5065,13 +5014,13 @@
         <v>40044</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5080,13 +5029,13 @@
         <v>34435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5095,13 +5044,13 @@
         <v>74479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5065,13 @@
         <v>982387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>947</v>
@@ -5131,13 +5080,13 @@
         <v>1008478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>1857</v>
@@ -5146,13 +5095,13 @@
         <v>1990865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5256,7 +5205,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5220,13 @@
         <v>29394</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -5286,13 +5235,13 @@
         <v>35812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -5301,13 +5250,13 @@
         <v>65206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5271,13 @@
         <v>730158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H18" s="7">
         <v>705</v>
@@ -5337,13 +5286,13 @@
         <v>749199</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="M18" s="7">
         <v>1373</v>
@@ -5352,13 +5301,13 @@
         <v>1479357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5477,13 +5426,13 @@
         <v>29658</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -5492,13 +5441,13 @@
         <v>46017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -5507,13 +5456,13 @@
         <v>75675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5477,13 @@
         <v>907909</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>920</v>
@@ -5543,13 +5492,13 @@
         <v>997762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>1822</v>
@@ -5558,13 +5507,13 @@
         <v>1905671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5587,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5653,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5668,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5632,13 @@
         <v>127557</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>138</v>
@@ -5698,13 +5647,13 @@
         <v>159528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>266</v>
@@ -5713,13 +5662,13 @@
         <v>287085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5683,13 @@
         <v>3266793</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>3200</v>
@@ -5749,13 +5698,13 @@
         <v>3385014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>6303</v>
@@ -5764,13 +5713,13 @@
         <v>6651807</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,7 +5775,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5847,7 +5796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D6155-9B5E-420E-A939-0984F0DEE01D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119CF2BB-2C9A-47B1-B9D3-5AA80599ECC8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5864,7 +5813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5977,7 +5926,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5992,7 +5941,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6007,7 +5956,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +5971,13 @@
         <v>7542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -6037,13 +5986,13 @@
         <v>9969</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -6052,13 +6001,13 @@
         <v>17512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6022,13 @@
         <v>94440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
@@ -6088,13 +6037,13 @@
         <v>120764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>329</v>
@@ -6103,13 +6052,13 @@
         <v>215203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,7 +6132,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6192,13 +6141,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6207,13 +6156,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6177,13 @@
         <v>29511</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -6243,13 +6192,13 @@
         <v>28705</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>104</v>
@@ -6258,13 +6207,13 @@
         <v>58216</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6228,13 @@
         <v>518936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>938</v>
@@ -6294,13 +6243,13 @@
         <v>563850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>1502</v>
@@ -6309,13 +6258,13 @@
         <v>1082786</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6338,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6398,13 +6347,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6413,13 +6362,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,10 +6386,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -6449,13 +6398,13 @@
         <v>46957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -6464,13 +6413,13 @@
         <v>94219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,10 +6437,10 @@
         <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>1435</v>
@@ -6503,10 +6452,10 @@
         <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>2338</v>
@@ -6518,10 +6467,10 @@
         <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6640,13 +6589,13 @@
         <v>45866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -6655,13 +6604,13 @@
         <v>26672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -6670,13 +6619,13 @@
         <v>72537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6640,13 @@
         <v>681058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -6706,13 +6655,13 @@
         <v>845538</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>1627</v>
@@ -6721,13 +6670,13 @@
         <v>1526596</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>391</v>
+        <v>231</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6759,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6825,13 +6774,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6795,13 @@
         <v>56559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -6861,13 +6810,13 @@
         <v>50978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="M21" s="7">
         <v>159</v>
@@ -6876,13 +6825,13 @@
         <v>107538</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6846,13 @@
         <v>908844</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>1478</v>
@@ -6915,10 +6864,10 @@
         <v>51</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>2406</v>
@@ -6927,13 +6876,13 @@
         <v>2004360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7019,10 +6968,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7031,13 +6980,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,13 +7001,13 @@
         <v>186741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>413</v>
+        <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>282</v>
@@ -7067,13 +7016,13 @@
         <v>163281</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -7082,13 +7031,13 @@
         <v>350022</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7052,13 @@
         <v>3195263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>5073</v>
@@ -7118,13 +7067,13 @@
         <v>3637466</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>8202</v>
@@ -7133,13 +7082,13 @@
         <v>6832730</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,7 +7144,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4139725-444B-4C15-82E4-86A7A3C1B9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C803B8D2-0B42-4710-A3AD-8420A5DD3155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD87768C-755A-4977-BC65-2F81D7BC7B6D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C3A69C5-29B5-471B-B481-C85A5C2030E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="435">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,1174 +95,1240 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>5,44%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
     <t>2,16%</t>
   </si>
   <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
   </si>
   <si>
     <t>94,92%</t>
@@ -1689,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5386B3B-31F5-4104-B577-C5229A07CBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C39383-49B0-4528-A9DD-1057AA4A6707}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,10 +1948,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1894,19 +1960,19 @@
         <v>4935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>103</v>
@@ -1915,13 +1981,13 @@
         <v>113305</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>125</v>
@@ -1930,13 +1996,13 @@
         <v>109872</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -1945,13 +2011,13 @@
         <v>223178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +2032,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -1981,13 +2047,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -1996,18 +2062,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2025,7 +2091,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2040,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2055,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2136,13 @@
         <v>26349</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -2085,13 +2151,13 @@
         <v>26957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -2100,19 +2166,19 @@
         <v>53306</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>549</v>
@@ -2121,13 +2187,13 @@
         <v>552305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -2136,13 +2202,13 @@
         <v>548639</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>1091</v>
@@ -2151,13 +2217,13 @@
         <v>1100944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2238,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2187,13 +2253,13 @@
         <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -2202,18 +2268,18 @@
         <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2231,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2246,7 +2312,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2261,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2342,13 @@
         <v>41445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -2291,13 +2357,13 @@
         <v>37345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -2306,19 +2372,19 @@
         <v>78790</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>856</v>
@@ -2327,13 +2393,13 @@
         <v>920355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>875</v>
@@ -2342,13 +2408,13 @@
         <v>931048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>1731</v>
@@ -2357,13 +2423,13 @@
         <v>1851403</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2444,13 @@
         <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>908</v>
@@ -2393,13 +2459,13 @@
         <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1804</v>
@@ -2408,18 +2474,18 @@
         <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2437,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2452,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2467,7 +2533,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2548,13 @@
         <v>36135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2497,13 +2563,13 @@
         <v>31962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2512,19 +2578,19 @@
         <v>68097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>605</v>
@@ -2533,13 +2599,13 @@
         <v>642374</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>664</v>
@@ -2548,13 +2614,13 @@
         <v>651879</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>1269</v>
@@ -2563,13 +2629,13 @@
         <v>1294253</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2650,13 @@
         <v>678509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -2599,13 +2665,13 @@
         <v>683841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
         <v>1337</v>
@@ -2614,18 +2680,18 @@
         <v>1362350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2643,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2658,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2673,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2754,13 @@
         <v>44179</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2703,13 +2769,13 @@
         <v>27554</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>76</v>
@@ -2718,19 +2784,19 @@
         <v>71733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>945</v>
@@ -2739,13 +2805,13 @@
         <v>898043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>970</v>
@@ -2754,13 +2820,13 @@
         <v>1011058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>1915</v>
@@ -2769,13 +2835,13 @@
         <v>1909101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2856,13 @@
         <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>997</v>
@@ -2805,13 +2871,13 @@
         <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>1991</v>
@@ -2820,13 +2886,13 @@
         <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2864,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2879,7 +2945,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2960,13 @@
         <v>150161</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -2909,13 +2975,13 @@
         <v>126701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>277</v>
@@ -2924,34 +2990,34 @@
         <v>276862</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>3058</v>
       </c>
       <c r="D26" s="7">
-        <v>3126383</v>
+        <v>3126382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>3176</v>
@@ -2960,13 +3026,13 @@
         <v>3252497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>6234</v>
@@ -2975,13 +3041,13 @@
         <v>6378879</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,16 +3059,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3011,13 +3077,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
@@ -3026,18 +3092,18 @@
         <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D49B1A7-3A50-490D-BEE7-9AF1D5ADDEB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7A0272-F4F1-4491-BE6A-4B40CF454588}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3075,7 +3141,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3188,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3203,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3218,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3299,13 @@
         <v>5388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3248,13 +3314,13 @@
         <v>4686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3263,19 +3329,19 @@
         <v>10074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>117</v>
@@ -3284,13 +3350,13 @@
         <v>110377</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="7">
         <v>95</v>
@@ -3299,13 +3365,13 @@
         <v>107219</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M6" s="7">
         <v>212</v>
@@ -3314,13 +3380,13 @@
         <v>217596</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3401,13 @@
         <v>115765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3350,13 +3416,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -3365,18 +3431,18 @@
         <v>227670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3394,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3409,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3424,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3505,13 @@
         <v>19179</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -3454,13 +3520,13 @@
         <v>27682</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -3469,19 +3535,19 @@
         <v>46861</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>534</v>
@@ -3490,13 +3556,13 @@
         <v>568525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>525</v>
@@ -3505,13 +3571,13 @@
         <v>557463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>1059</v>
@@ -3520,13 +3586,13 @@
         <v>1125988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3607,13 @@
         <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -3556,13 +3622,13 @@
         <v>585145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>1103</v>
@@ -3571,18 +3637,18 @@
         <v>1172849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3600,7 +3666,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3615,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3630,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3711,13 @@
         <v>39407</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3660,13 +3726,13 @@
         <v>44174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -3675,19 +3741,19 @@
         <v>83582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>899</v>
@@ -3696,13 +3762,13 @@
         <v>978540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>896</v>
@@ -3711,13 +3777,13 @@
         <v>983617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1795</v>
@@ -3726,13 +3792,13 @@
         <v>1962156</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3813,13 @@
         <v>1017947</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>937</v>
@@ -3762,13 +3828,13 @@
         <v>1027791</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1873</v>
@@ -3777,18 +3843,18 @@
         <v>2045738</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3806,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3821,7 +3887,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3836,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3917,13 @@
         <v>26445</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3866,13 +3932,13 @@
         <v>22535</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -3881,19 +3947,19 @@
         <v>48980</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>666</v>
@@ -3902,13 +3968,13 @@
         <v>731178</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>684</v>
@@ -3917,13 +3983,13 @@
         <v>754639</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M18" s="7">
         <v>1350</v>
@@ -3932,13 +3998,13 @@
         <v>1485817</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +4019,13 @@
         <v>757623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>705</v>
@@ -3968,13 +4034,13 @@
         <v>777174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
         <v>1394</v>
@@ -3983,18 +4049,18 @@
         <v>1534797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4012,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4027,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4042,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4123,13 @@
         <v>41868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -4072,13 +4138,13 @@
         <v>49702</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -4087,19 +4153,19 @@
         <v>91570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>870</v>
@@ -4108,13 +4174,13 @@
         <v>905871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>955</v>
@@ -4123,13 +4189,13 @@
         <v>1002199</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>1825</v>
@@ -4138,13 +4204,13 @@
         <v>1908070</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4225,13 @@
         <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>1003</v>
@@ -4174,13 +4240,13 @@
         <v>1051901</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>1913</v>
@@ -4189,13 +4255,13 @@
         <v>1999640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4233,7 +4299,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4248,7 +4314,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4329,13 @@
         <v>132288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -4278,10 +4344,10 @@
         <v>148779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>225</v>
@@ -4305,7 +4371,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>3086</v>
@@ -4314,13 +4380,13 @@
         <v>3294491</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H26" s="7">
         <v>3155</v>
@@ -4329,13 +4395,13 @@
         <v>3405137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>6241</v>
@@ -4344,13 +4410,13 @@
         <v>6699628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4431,13 @@
         <v>3426779</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>3295</v>
@@ -4380,13 +4446,13 @@
         <v>3553916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>6504</v>
@@ -4395,18 +4461,18 @@
         <v>6980694</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4427,7 +4493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD58EB0-A809-4918-B5FA-5F3CAA32E5DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F177F827-41D8-444D-9494-9263D57AFDC0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4444,7 +4510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4557,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4572,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4587,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4668,13 @@
         <v>3660</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4617,13 +4683,13 @@
         <v>7802</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4632,19 +4698,19 @@
         <v>11462</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>109</v>
@@ -4653,13 +4719,13 @@
         <v>112886</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>109</v>
@@ -4668,13 +4734,13 @@
         <v>105558</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>218</v>
@@ -4683,13 +4749,13 @@
         <v>218444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4770,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4719,13 +4785,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -4734,18 +4800,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4763,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4778,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4793,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4874,13 @@
         <v>24801</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4823,13 +4889,13 @@
         <v>35462</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -4838,19 +4904,19 @@
         <v>60263</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>514</v>
@@ -4859,13 +4925,13 @@
         <v>533453</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>519</v>
@@ -4874,13 +4940,13 @@
         <v>524017</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>1033</v>
@@ -4889,13 +4955,13 @@
         <v>1057470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4976,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -4925,13 +4991,13 @@
         <v>559479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>1090</v>
@@ -4940,18 +5006,18 @@
         <v>1117733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4969,7 +5035,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4984,7 +5050,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4999,7 +5065,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5080,13 @@
         <v>40044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5029,13 +5095,13 @@
         <v>34435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5044,19 +5110,19 @@
         <v>74479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>910</v>
@@ -5065,13 +5131,13 @@
         <v>982387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>947</v>
@@ -5080,13 +5146,13 @@
         <v>1008478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1857</v>
@@ -5095,13 +5161,13 @@
         <v>1990865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5182,13 @@
         <v>1022431</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>977</v>
@@ -5131,13 +5197,13 @@
         <v>1042913</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1928</v>
@@ -5146,18 +5212,18 @@
         <v>2065344</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5175,7 +5241,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5190,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5205,7 +5271,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5286,13 @@
         <v>29394</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -5235,13 +5301,13 @@
         <v>35812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -5250,19 +5316,19 @@
         <v>65206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>668</v>
@@ -5271,13 +5337,13 @@
         <v>730158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>705</v>
@@ -5286,13 +5352,13 @@
         <v>749199</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>1373</v>
@@ -5301,13 +5367,13 @@
         <v>1479357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5388,13 @@
         <v>759552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>736</v>
@@ -5337,13 +5403,13 @@
         <v>785011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
         <v>1432</v>
@@ -5352,18 +5418,18 @@
         <v>1544563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5381,7 +5447,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5396,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5411,7 +5477,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5492,13 @@
         <v>29658</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -5441,13 +5507,13 @@
         <v>46017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -5456,19 +5522,19 @@
         <v>75675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>902</v>
@@ -5477,13 +5543,13 @@
         <v>907909</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>920</v>
@@ -5492,13 +5558,13 @@
         <v>997762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>1822</v>
@@ -5507,13 +5573,13 @@
         <v>1905671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5594,13 @@
         <v>937567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>959</v>
@@ -5543,13 +5609,13 @@
         <v>1043779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>1891</v>
@@ -5558,13 +5624,13 @@
         <v>1981346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5602,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5617,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5698,13 @@
         <v>127557</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>138</v>
@@ -5647,13 +5713,13 @@
         <v>159528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>266</v>
@@ -5662,19 +5728,19 @@
         <v>287085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>3103</v>
@@ -5683,13 +5749,13 @@
         <v>3266793</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>3200</v>
@@ -5698,13 +5764,13 @@
         <v>3385014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>6303</v>
@@ -5713,13 +5779,13 @@
         <v>6651807</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5800,13 @@
         <v>3394350</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>3338</v>
@@ -5749,13 +5815,13 @@
         <v>3544542</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>6569</v>
@@ -5764,18 +5830,18 @@
         <v>6938892</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5796,7 +5862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119CF2BB-2C9A-47B1-B9D3-5AA80599ECC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0199C2AD-32C8-4E5A-8950-5BF1FF1E49E7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5813,7 +5879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5926,7 +5992,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5941,7 +6007,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5956,7 +6022,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +6037,13 @@
         <v>7542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -5986,13 +6052,13 @@
         <v>9969</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -6001,19 +6067,19 @@
         <v>17512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>108</v>
@@ -6022,13 +6088,13 @@
         <v>94440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
@@ -6037,13 +6103,13 @@
         <v>120764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>329</v>
@@ -6052,13 +6118,13 @@
         <v>215203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6139,13 @@
         <v>101982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>243</v>
@@ -6088,13 +6154,13 @@
         <v>130733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>361</v>
@@ -6103,18 +6169,18 @@
         <v>232715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6132,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6141,13 +6207,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6156,13 +6222,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6243,13 @@
         <v>29511</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -6192,13 +6258,13 @@
         <v>28705</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="M9" s="7">
         <v>104</v>
@@ -6207,19 +6273,19 @@
         <v>58216</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>226</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>564</v>
@@ -6228,13 +6294,13 @@
         <v>518936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>938</v>
@@ -6243,13 +6309,13 @@
         <v>563850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>1502</v>
@@ -6258,13 +6324,13 @@
         <v>1082786</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6345,13 @@
         <v>548447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -6294,13 +6360,13 @@
         <v>619967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>1609</v>
@@ -6309,18 +6375,18 @@
         <v>1168414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6338,7 +6404,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6347,13 +6413,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6362,13 +6428,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6449,13 @@
         <v>47262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -6398,13 +6464,13 @@
         <v>46957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -6413,19 +6479,19 @@
         <v>94219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>903</v>
@@ -6434,13 +6500,13 @@
         <v>991986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>1435</v>
@@ -6449,13 +6515,13 @@
         <v>1011800</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>2338</v>
@@ -6464,13 +6530,13 @@
         <v>2003786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6551,13 @@
         <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1517</v>
@@ -6500,13 +6566,13 @@
         <v>1060079</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>2481</v>
@@ -6515,18 +6581,18 @@
         <v>2099327</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6544,7 +6610,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6559,7 +6625,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6574,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6655,13 @@
         <v>45866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -6604,13 +6670,13 @@
         <v>26672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -6619,19 +6685,19 @@
         <v>72537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>626</v>
@@ -6640,13 +6706,13 @@
         <v>681058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -6655,13 +6721,13 @@
         <v>845538</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>1627</v>
@@ -6670,13 +6736,13 @@
         <v>1526596</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6757,13 @@
         <v>726924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>1043</v>
@@ -6706,13 +6772,13 @@
         <v>872210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
         <v>1717</v>
@@ -6721,18 +6787,18 @@
         <v>1599133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6750,7 +6816,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6759,13 +6825,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6774,13 +6840,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6861,13 @@
         <v>56559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>213</v>
+        <v>406</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -6810,13 +6876,13 @@
         <v>50978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>386</v>
+        <v>215</v>
       </c>
       <c r="M21" s="7">
         <v>159</v>
@@ -6825,19 +6891,19 @@
         <v>107538</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>928</v>
@@ -6846,13 +6912,13 @@
         <v>908844</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>1478</v>
@@ -6861,13 +6927,13 @@
         <v>1095515</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>2406</v>
@@ -6876,13 +6942,13 @@
         <v>2004360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6963,13 @@
         <v>965403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>1560</v>
@@ -6912,13 +6978,13 @@
         <v>1149256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>2566</v>
@@ -6927,13 +6993,13 @@
         <v>2114660</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,7 +7022,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -6968,10 +7034,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6980,13 +7046,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,13 +7067,13 @@
         <v>186741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>23</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>282</v>
@@ -7016,13 +7082,13 @@
         <v>163281</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -7031,19 +7097,19 @@
         <v>350022</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>3129</v>
@@ -7052,13 +7118,13 @@
         <v>3195263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>5073</v>
@@ -7067,13 +7133,13 @@
         <v>3637466</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="M26" s="7">
         <v>8202</v>
@@ -7082,13 +7148,13 @@
         <v>6832730</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7169,13 @@
         <v>3382004</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>5361</v>
@@ -7118,13 +7184,13 @@
         <v>3832244</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>8734</v>
@@ -7133,18 +7199,18 @@
         <v>7214248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A89B0FF4-F9D0-46F2-AF28-B4983019DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1C3D9D-CC84-4937-AB84-48C60E54A0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48DDEB8D-2FF1-4787-8CA6-8966ED7CDDDC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF7A4D13-F6FF-45AB-9E1E-6CC5E513A259}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1126 +68,889 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
 </sst>
 </file>
@@ -1599,8 +1362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDA5371-C301-41C7-A463-9678CBCF69DE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23285E41-C608-477F-A9B9-1BC43D78B857}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1717,10 +1480,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>2053</v>
+        <v>28402</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1732,10 +1495,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>2883</v>
+        <v>29840</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1747,10 +1510,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>4935</v>
+        <v>58241</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1768,10 +1531,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>652</v>
       </c>
       <c r="D5" s="7">
-        <v>113305</v>
+        <v>665610</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1783,10 +1546,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>667</v>
       </c>
       <c r="I5" s="7">
-        <v>109872</v>
+        <v>658511</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1798,10 +1561,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>228</v>
+        <v>1319</v>
       </c>
       <c r="N5" s="7">
-        <v>223178</v>
+        <v>1324122</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1819,10 +1582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1834,10 +1597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1849,10 +1612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1872,10 +1635,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>26349</v>
+        <v>41445</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1887,10 +1650,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>26957</v>
+        <v>37345</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1902,10 +1665,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>53306</v>
+        <v>78790</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1923,10 +1686,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>549</v>
+        <v>856</v>
       </c>
       <c r="D8" s="7">
-        <v>552305</v>
+        <v>920355</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1938,10 +1701,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>542</v>
+        <v>875</v>
       </c>
       <c r="I8" s="7">
-        <v>548639</v>
+        <v>931048</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1953,10 +1716,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1091</v>
+        <v>1731</v>
       </c>
       <c r="N8" s="7">
-        <v>1100944</v>
+        <v>1851403</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1974,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1989,10 +1752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2027,10 +1790,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>41445</v>
+        <v>36135</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2042,10 +1805,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>37345</v>
+        <v>31962</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2057,10 +1820,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>78790</v>
+        <v>68097</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2078,10 +1841,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>856</v>
+        <v>605</v>
       </c>
       <c r="D11" s="7">
-        <v>920355</v>
+        <v>642374</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2093,10 +1856,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>875</v>
+        <v>664</v>
       </c>
       <c r="I11" s="7">
-        <v>931048</v>
+        <v>651879</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2108,10 +1871,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1731</v>
+        <v>1269</v>
       </c>
       <c r="N11" s="7">
-        <v>1851403</v>
+        <v>1294253</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2129,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2144,10 +1907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2159,10 +1922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2182,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>36135</v>
+        <v>44179</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2197,10 +1960,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>31962</v>
+        <v>27554</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2212,10 +1975,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>68097</v>
+        <v>71733</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2233,10 +1996,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>605</v>
+        <v>945</v>
       </c>
       <c r="D14" s="7">
-        <v>642374</v>
+        <v>898043</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2248,10 +2011,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>664</v>
+        <v>970</v>
       </c>
       <c r="I14" s="7">
-        <v>651879</v>
+        <v>1011058</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2263,10 +2026,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1269</v>
+        <v>1915</v>
       </c>
       <c r="N14" s="7">
-        <v>1294253</v>
+        <v>1909101</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2284,10 +2047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2331,55 +2094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="D16" s="7">
-        <v>44179</v>
+        <v>150161</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I16" s="7">
-        <v>27554</v>
+        <v>126701</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>277</v>
+      </c>
+      <c r="N16" s="7">
+        <v>276862</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>76</v>
-      </c>
-      <c r="N16" s="7">
-        <v>71733</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>945</v>
+        <v>3058</v>
       </c>
       <c r="D17" s="7">
-        <v>898043</v>
+        <v>3126382</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3176</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3252496</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="7">
-        <v>970</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1011058</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6234</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6378879</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>1915</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1909101</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2485,171 +2248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>156</v>
-      </c>
-      <c r="D19" s="7">
-        <v>150161</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>121</v>
-      </c>
-      <c r="I19" s="7">
-        <v>126701</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>277</v>
-      </c>
-      <c r="N19" s="7">
-        <v>276862</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3058</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3126383</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3252497</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6234</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6378878</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2662,8 +2269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F416E0-D830-4390-A068-0D48A2601A4D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E046649D-F084-4D42-95B4-988D487325C5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2679,7 +2286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2780,49 +2387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>5388</v>
+        <v>24567</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="7">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>32367</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>56934</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4686</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>10074</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,49 +2438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>651</v>
+      </c>
+      <c r="D5" s="7">
+        <v>678902</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
+        <v>620</v>
+      </c>
+      <c r="I5" s="7">
+        <v>664683</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="7">
-        <v>110377</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="7">
-        <v>95</v>
-      </c>
-      <c r="I5" s="7">
-        <v>107219</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="M5" s="7">
-        <v>212</v>
+        <v>1271</v>
       </c>
       <c r="N5" s="7">
-        <v>217596</v>
+        <v>1343585</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,10 +2489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2897,10 +2504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2912,10 +2519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2935,49 +2542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>19179</v>
+        <v>39407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>27682</v>
+        <v>44174</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N7" s="7">
-        <v>46861</v>
+        <v>83582</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,49 +2593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>899</v>
       </c>
       <c r="D8" s="7">
-        <v>568525</v>
+        <v>978540</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>525</v>
+        <v>896</v>
       </c>
       <c r="I8" s="7">
-        <v>557463</v>
+        <v>983617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>1059</v>
+        <v>1795</v>
       </c>
       <c r="N8" s="7">
-        <v>1125988</v>
+        <v>1962156</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3052,10 +2659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3067,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3090,49 +2697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>39407</v>
+        <v>26445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>44174</v>
+        <v>22535</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>83582</v>
+        <v>48980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,49 +2748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>899</v>
+        <v>666</v>
       </c>
       <c r="D11" s="7">
-        <v>978540</v>
+        <v>731178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
-        <v>896</v>
+        <v>684</v>
       </c>
       <c r="I11" s="7">
-        <v>983617</v>
+        <v>754639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>1795</v>
+        <v>1350</v>
       </c>
       <c r="N11" s="7">
-        <v>1962156</v>
+        <v>1485817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3207,10 +2814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3222,10 +2829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3245,49 +2852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>26445</v>
+        <v>41868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>22535</v>
+        <v>49702</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>48980</v>
+        <v>91570</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,49 +2903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>666</v>
+        <v>870</v>
       </c>
       <c r="D14" s="7">
-        <v>731178</v>
+        <v>905871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
-        <v>684</v>
+        <v>955</v>
       </c>
       <c r="I14" s="7">
-        <v>754639</v>
+        <v>1002199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
-        <v>1350</v>
+        <v>1825</v>
       </c>
       <c r="N14" s="7">
-        <v>1485817</v>
+        <v>1908070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3362,10 +2969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3377,10 +2984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3394,55 +3001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7">
-        <v>41868</v>
+        <v>132288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="I16" s="7">
-        <v>49702</v>
+        <v>148779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="N16" s="7">
-        <v>91570</v>
+        <v>281066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>870</v>
+        <v>3086</v>
       </c>
       <c r="D17" s="7">
-        <v>905871</v>
+        <v>3294491</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
-        <v>955</v>
+        <v>3155</v>
       </c>
       <c r="I17" s="7">
-        <v>1002199</v>
+        <v>3405137</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
-        <v>1825</v>
+        <v>6241</v>
       </c>
       <c r="N17" s="7">
-        <v>1908070</v>
+        <v>6699628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,10 +3109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3517,10 +3124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553916</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3532,10 +3139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980694</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3548,171 +3155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>123</v>
-      </c>
-      <c r="D19" s="7">
-        <v>132288</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="7">
-        <v>140</v>
-      </c>
-      <c r="I19" s="7">
-        <v>148779</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="7">
-        <v>263</v>
-      </c>
-      <c r="N19" s="7">
-        <v>281066</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3086</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3294491</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3155</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3405137</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6241</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6699628</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553916</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3725,8 +3176,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D14AD43-096F-447A-8ECD-8CA578473E39}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2062FD94-90CE-4148-94CB-AB88817264F6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3742,7 +3193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3843,49 +3294,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>3660</v>
+        <v>28461</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>7802</v>
+        <v>43264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>11462</v>
+        <v>71725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,49 +3345,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>623</v>
       </c>
       <c r="D5" s="7">
-        <v>112886</v>
+        <v>646339</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>628</v>
       </c>
       <c r="I5" s="7">
-        <v>105558</v>
+        <v>629575</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1251</v>
       </c>
       <c r="N5" s="7">
-        <v>218444</v>
+        <v>1275914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +3396,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3960,10 +3411,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3975,10 +3426,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3998,49 +3449,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>24801</v>
+        <v>40044</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>35462</v>
+        <v>34435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>60263</v>
+        <v>74479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,49 +3500,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>514</v>
+        <v>910</v>
       </c>
       <c r="D8" s="7">
-        <v>533453</v>
+        <v>982387</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
-        <v>519</v>
+        <v>947</v>
       </c>
       <c r="I8" s="7">
-        <v>524017</v>
+        <v>1008478</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
-        <v>1033</v>
+        <v>1857</v>
       </c>
       <c r="N8" s="7">
-        <v>1057470</v>
+        <v>1990865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,10 +3551,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4115,10 +3566,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4130,10 +3581,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4153,49 +3604,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>40044</v>
+        <v>29394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>34435</v>
+        <v>35812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>74479</v>
+        <v>65206</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,49 +3655,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>910</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7">
-        <v>982387</v>
+        <v>730158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
-        <v>947</v>
+        <v>705</v>
       </c>
       <c r="I11" s="7">
-        <v>1008478</v>
+        <v>749199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1373</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1479357</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1857</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1990865</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,10 +3706,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4270,10 +3721,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4285,10 +3736,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4308,49 +3759,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>29394</v>
+        <v>29658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>35812</v>
+        <v>46017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>65206</v>
+        <v>75675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,49 +3810,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>668</v>
+        <v>902</v>
       </c>
       <c r="D14" s="7">
-        <v>730158</v>
+        <v>907909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
-        <v>705</v>
+        <v>920</v>
       </c>
       <c r="I14" s="7">
-        <v>749199</v>
+        <v>997762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
-        <v>1373</v>
+        <v>1822</v>
       </c>
       <c r="N14" s="7">
-        <v>1479357</v>
+        <v>1905671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,10 +3861,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4425,10 +3876,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4440,10 +3891,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4457,55 +3908,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>29658</v>
+        <v>127557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>46017</v>
+        <v>159528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N16" s="7">
-        <v>75675</v>
+        <v>287085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,49 +3965,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>902</v>
+        <v>3103</v>
       </c>
       <c r="D17" s="7">
-        <v>907909</v>
+        <v>3266793</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
-        <v>920</v>
+        <v>3200</v>
       </c>
       <c r="I17" s="7">
-        <v>997762</v>
+        <v>3385014</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
-        <v>1822</v>
+        <v>6303</v>
       </c>
       <c r="N17" s="7">
-        <v>1905671</v>
+        <v>6651807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4580,10 +4031,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4595,10 +4046,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4611,171 +4062,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>128</v>
-      </c>
-      <c r="D19" s="7">
-        <v>127557</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="7">
-        <v>138</v>
-      </c>
-      <c r="I19" s="7">
-        <v>159528</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" s="7">
-        <v>266</v>
-      </c>
-      <c r="N19" s="7">
-        <v>287085</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3103</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3266793</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3200</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3385014</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6303</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6651807</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4788,8 +4083,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632BCB9-F97E-45C7-A5FD-C4554F9F2C5A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4CBD56-BF74-4946-ADC9-9D934B99BE09}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4805,7 +4100,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4906,49 +4201,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>7542</v>
+        <v>35765</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I4" s="7">
-        <v>9969</v>
+        <v>35402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="N4" s="7">
-        <v>17512</v>
+        <v>71167</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,49 +4252,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>672</v>
       </c>
       <c r="D5" s="7">
-        <v>94440</v>
+        <v>598356</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
-        <v>221</v>
+        <v>1159</v>
       </c>
       <c r="I5" s="7">
-        <v>120764</v>
+        <v>639968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>329</v>
+        <v>1831</v>
       </c>
       <c r="N5" s="7">
-        <v>215203</v>
+        <v>1238324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,10 +4303,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634121</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5023,10 +4318,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5038,10 +4333,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1309491</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5061,49 +4356,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>29511</v>
+        <v>43849</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>28705</v>
+        <v>42196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="N7" s="7">
-        <v>58216</v>
+        <v>86044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,49 +4407,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>564</v>
+        <v>903</v>
       </c>
       <c r="D8" s="7">
-        <v>518936</v>
+        <v>1149015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
-        <v>938</v>
+        <v>1435</v>
       </c>
       <c r="I8" s="7">
-        <v>563850</v>
+        <v>915241</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
-        <v>1502</v>
+        <v>2338</v>
       </c>
       <c r="N8" s="7">
-        <v>1082786</v>
+        <v>2064257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,10 +4458,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>548447</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5178,10 +4473,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>957437</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5193,10 +4488,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1141002</v>
+        <v>2150301</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5216,49 +4511,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>47262</v>
+        <v>44128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>46957</v>
+        <v>24350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>94219</v>
+        <v>68478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,49 +4562,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>903</v>
+        <v>626</v>
       </c>
       <c r="D11" s="7">
-        <v>991986</v>
+        <v>658837</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>1435</v>
+        <v>1001</v>
       </c>
       <c r="I11" s="7">
-        <v>1011799</v>
+        <v>907045</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
-        <v>2338</v>
+        <v>1627</v>
       </c>
       <c r="N11" s="7">
-        <v>2003785</v>
+        <v>1565881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>702965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5333,10 +4628,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1043</v>
       </c>
       <c r="I12" s="7">
-        <v>1058756</v>
+        <v>931395</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5348,10 +4643,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2098004</v>
+        <v>1634359</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5371,49 +4666,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7">
-        <v>45866</v>
+        <v>53218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>26672</v>
+        <v>45647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="N13" s="7">
-        <v>72537</v>
+        <v>98865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,49 +4717,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>626</v>
+        <v>928</v>
       </c>
       <c r="D14" s="7">
-        <v>681058</v>
+        <v>873613</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
-        <v>1001</v>
+        <v>1478</v>
       </c>
       <c r="I14" s="7">
-        <v>845538</v>
+        <v>1045869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
-        <v>1627</v>
+        <v>2406</v>
       </c>
       <c r="N14" s="7">
-        <v>1526596</v>
+        <v>1919482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,10 +4768,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>726924</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5488,10 +4783,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1043</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>872210</v>
+        <v>1091516</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5503,10 +4798,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1599133</v>
+        <v>2018347</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5520,55 +4815,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="D16" s="7">
-        <v>56559</v>
+        <v>176960</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="I16" s="7">
-        <v>50978</v>
+        <v>147595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>159</v>
+        <v>526</v>
       </c>
       <c r="N16" s="7">
-        <v>107538</v>
+        <v>324555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,49 +4872,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>928</v>
+        <v>3129</v>
       </c>
       <c r="D17" s="7">
-        <v>908844</v>
+        <v>3279821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
-        <v>1478</v>
+        <v>5073</v>
       </c>
       <c r="I17" s="7">
-        <v>1095516</v>
+        <v>3508123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
-        <v>2406</v>
+        <v>8202</v>
       </c>
       <c r="N17" s="7">
-        <v>2004360</v>
+        <v>6787944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3456781</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5643,10 +4938,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5355</v>
       </c>
       <c r="I18" s="7">
-        <v>1146494</v>
+        <v>3655718</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5658,10 +4953,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8728</v>
       </c>
       <c r="N18" s="7">
-        <v>2111898</v>
+        <v>7112499</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5674,171 +4969,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>244</v>
-      </c>
-      <c r="D19" s="7">
-        <v>186741</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H19" s="7">
-        <v>282</v>
-      </c>
-      <c r="I19" s="7">
-        <v>163281</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M19" s="7">
-        <v>526</v>
-      </c>
-      <c r="N19" s="7">
-        <v>350022</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3129</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3195263</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5073</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3637467</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8202</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6832729</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382004</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5355</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3800748</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8728</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7182751</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
